--- a/notebooks/resumen_partido.xlsx
+++ b/notebooks/resumen_partido.xlsx
@@ -688,40 +688,40 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>440</v>
+        <v>275</v>
       </c>
       <c r="C7">
-        <v>14.8</v>
+        <v>9.25</v>
       </c>
       <c r="D7">
-        <v>9.6</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>8.4</v>
+        <v>5.25</v>
       </c>
       <c r="F7">
-        <v>26.4</v>
+        <v>16.5</v>
       </c>
       <c r="G7">
-        <v>499.2</v>
+        <v>312</v>
       </c>
       <c r="H7">
-        <v>140.92</v>
+        <v>88.08</v>
       </c>
       <c r="I7">
-        <v>4.74</v>
+        <v>2.97</v>
       </c>
       <c r="J7">
-        <v>3.1</v>
+        <v>1.94</v>
       </c>
       <c r="K7">
-        <v>2.7</v>
+        <v>1.69</v>
       </c>
       <c r="L7">
-        <v>8.539999999999999</v>
+        <v>5.34</v>
       </c>
       <c r="M7">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -729,40 +729,40 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>330.32</v>
+        <v>18.81</v>
       </c>
       <c r="C8">
-        <v>11.32</v>
+        <v>2.87</v>
       </c>
       <c r="D8">
-        <v>7.34</v>
+        <v>1.83</v>
       </c>
       <c r="E8">
-        <v>6.62</v>
+        <v>2.63</v>
       </c>
       <c r="F8">
-        <v>20.2</v>
+        <v>5.2</v>
       </c>
       <c r="G8">
-        <v>374.5</v>
+        <v>11.11</v>
       </c>
       <c r="H8">
-        <v>105.72</v>
+        <v>3.27</v>
       </c>
       <c r="I8">
-        <v>3.63</v>
+        <v>0.95</v>
       </c>
       <c r="J8">
-        <v>2.37</v>
+        <v>0.63</v>
       </c>
       <c r="K8">
-        <v>2.13</v>
+        <v>0.87</v>
       </c>
       <c r="L8">
-        <v>6.55</v>
+        <v>1.8</v>
       </c>
       <c r="M8">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
